--- a/12Assignment/hw12-ChristianHansen.xlsx
+++ b/12Assignment/hw12-ChristianHansen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Optimization</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Localizing parameters in insertNode</t>
-  </si>
-  <si>
-    <t>&lt;- holy</t>
   </si>
   <si>
     <t>All runtimes are based on 800,000 iterations</t>
@@ -174,7 +171,7 @@
                   <c:v>28.589300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.209734000000001</c:v>
+                  <c:v>28.084282999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28.570582000000002</c:v>
@@ -203,11 +200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="15151104"/>
-        <c:axId val="15152640"/>
+        <c:axId val="209736448"/>
+        <c:axId val="209737984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15151104"/>
+        <c:axId val="209736448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -216,7 +213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="15152640"/>
+        <c:crossAx val="209737984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -224,7 +221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15152640"/>
+        <c:axId val="209737984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -237,7 +234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="15151104"/>
+        <c:crossAx val="209736448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -581,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,12 +589,12 @@
     <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -613,44 +610,41 @@
         <v>28.589300000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>17.209734000000001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28.084282999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>28.570582000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>28.269279000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>28.280108999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>28.316783000000001</v>
